--- a/data/trans_orig/P15B_tráfico-Clase-trans_orig.xlsx
+++ b/data/trans_orig/P15B_tráfico-Clase-trans_orig.xlsx
@@ -747,7 +747,7 @@
         <v>0</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>4897</v>
+        <v>5397</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.08845998619567344</v>
@@ -756,7 +756,7 @@
         <v>0</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.3887501335644277</v>
+        <v>0.4284132482562445</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>1</v>
@@ -768,7 +768,7 @@
         <v>0</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>4455</v>
+        <v>4436</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.1263752304839248</v>
@@ -777,7 +777,7 @@
         <v>0</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.5739818109588255</v>
+        <v>0.5715211615968864</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>2</v>
@@ -789,7 +789,7 @@
         <v>0</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>6321</v>
+        <v>6520</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.1029132918460789</v>
@@ -798,7 +798,7 @@
         <v>0</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.3104807386565103</v>
+        <v>0.3202509510438616</v>
       </c>
     </row>
     <row r="5">
@@ -815,7 +815,7 @@
         <v>11484</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>7701</v>
+        <v>7201</v>
       </c>
       <c r="F5" s="5" t="n">
         <v>12598</v>
@@ -824,7 +824,7 @@
         <v>0.9115400138043266</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.6112498664355649</v>
+        <v>0.5715867517437554</v>
       </c>
       <c r="I5" s="6" t="n">
         <v>1</v>
@@ -836,7 +836,7 @@
         <v>6780</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>3306</v>
+        <v>3325</v>
       </c>
       <c r="M5" s="5" t="n">
         <v>7761</v>
@@ -845,7 +845,7 @@
         <v>0.8736247695160752</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.4260181890411749</v>
+        <v>0.4284788384031136</v>
       </c>
       <c r="P5" s="6" t="n">
         <v>1</v>
@@ -857,7 +857,7 @@
         <v>18263</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>14037</v>
+        <v>13838</v>
       </c>
       <c r="T5" s="5" t="n">
         <v>20358</v>
@@ -866,7 +866,7 @@
         <v>0.8970867081539211</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.6895192613434897</v>
+        <v>0.6797490489561385</v>
       </c>
       <c r="W5" s="6" t="n">
         <v>1</v>
@@ -961,19 +961,19 @@
         <v>4876</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>1083</v>
+        <v>1076</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>9029</v>
+        <v>8612</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.3671271047682504</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.0815295955812002</v>
+        <v>0.08103560807644224</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.6798096728166491</v>
+        <v>0.6484465325473927</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>5</v>
@@ -995,19 +995,19 @@
         <v>10463</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>6044</v>
+        <v>6221</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>14517</v>
+        <v>14457</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.5545487148530479</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.3203514310488635</v>
+        <v>0.329735292822823</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.7694215104373909</v>
+        <v>0.7661921843355333</v>
       </c>
     </row>
     <row r="8">
@@ -1024,19 +1024,19 @@
         <v>8405</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>4252</v>
+        <v>4669</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>12198</v>
+        <v>12205</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.6328728952317495</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.3201903271833513</v>
+        <v>0.3515534674526075</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9184704044187998</v>
+        <v>0.9189643919235578</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>0</v>
@@ -1058,19 +1058,19 @@
         <v>8405</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>4351</v>
+        <v>4411</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>12824</v>
+        <v>12647</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.445451285146952</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.230578489562609</v>
+        <v>0.2338078156644665</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.6796485689511363</v>
+        <v>0.6702647071771769</v>
       </c>
     </row>
     <row r="9">
@@ -1162,19 +1162,19 @@
         <v>2518</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>786</v>
+        <v>785</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>6472</v>
+        <v>7373</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.08903097487110211</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.02777923386761501</v>
+        <v>0.02774331076992785</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.2288026590023398</v>
+        <v>0.260655969596317</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>0</v>
@@ -1199,16 +1199,16 @@
         <v>787</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>6582</v>
+        <v>6248</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.07575394882250838</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.02368108048183955</v>
+        <v>0.02366061342814561</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.1980073540211413</v>
+        <v>0.1879579922212696</v>
       </c>
     </row>
     <row r="11">
@@ -1225,19 +1225,19 @@
         <v>25767</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>21813</v>
+        <v>20912</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>27499</v>
+        <v>27500</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.9109690251288979</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.771197340997661</v>
+        <v>0.7393440304036832</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.972220766132385</v>
+        <v>0.9722566892300721</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>5</v>
@@ -1259,7 +1259,7 @@
         <v>30724</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>26660</v>
+        <v>26994</v>
       </c>
       <c r="T11" s="5" t="n">
         <v>32455</v>
@@ -1268,10 +1268,10 @@
         <v>0.9242460511774916</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.8019926459788567</v>
+        <v>0.8120420077787304</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.9763189195181604</v>
+        <v>0.9763393865718544</v>
       </c>
     </row>
     <row r="12">
@@ -1363,19 +1363,19 @@
         <v>15937</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>10500</v>
+        <v>10282</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>22844</v>
+        <v>22374</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.4083912915220755</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.2690741617583032</v>
+        <v>0.2634873796950049</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.5854108566547628</v>
+        <v>0.5733432194549763</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>6</v>
@@ -1384,19 +1384,19 @@
         <v>6251</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>2846</v>
+        <v>2289</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>11529</v>
+        <v>11620</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.2499417735730954</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.1137864010871577</v>
+        <v>0.09151876375883237</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.4609836533966488</v>
+        <v>0.4646248489003822</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>20</v>
@@ -1405,19 +1405,19 @@
         <v>22187</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>15516</v>
+        <v>14939</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>30352</v>
+        <v>31219</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.3465044020721355</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.2423229615738821</v>
+        <v>0.2333012347984747</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.4740205738246488</v>
+        <v>0.4875489391642988</v>
       </c>
     </row>
     <row r="14">
@@ -1434,19 +1434,19 @@
         <v>23086</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>16179</v>
+        <v>16649</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>28523</v>
+        <v>28741</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.5916087084779245</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.414589143345237</v>
+        <v>0.426656780545024</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.7309258382416969</v>
+        <v>0.7365126203049956</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>18</v>
@@ -1455,19 +1455,19 @@
         <v>18759</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>13481</v>
+        <v>13390</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>22164</v>
+        <v>22721</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.7500582264269047</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.5390163466033512</v>
+        <v>0.5353751510996176</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.8862135989128425</v>
+        <v>0.9084812362411678</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>41</v>
@@ -1476,19 +1476,19 @@
         <v>41845</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>33680</v>
+        <v>32813</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>48516</v>
+        <v>49093</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.6534955979278645</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.5259794261753515</v>
+        <v>0.5124510608357012</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.7576770384261179</v>
+        <v>0.7666987652015252</v>
       </c>
     </row>
     <row r="15">
@@ -1580,19 +1580,19 @@
         <v>7107</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>3465</v>
+        <v>3063</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>10629</v>
+        <v>10290</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.5622040481775921</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.2740832675790409</v>
+        <v>0.2422935519612394</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.8408656567879259</v>
+        <v>0.8140238448069644</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>5</v>
@@ -1604,16 +1604,16 @@
         <v>1831</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>9235</v>
+        <v>9640</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.2118381583204117</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.08156195833812052</v>
+        <v>0.0815468883485346</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.4113866966638883</v>
+        <v>0.4294510481654453</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>12</v>
@@ -1622,19 +1622,19 @@
         <v>11863</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>6746</v>
+        <v>7073</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>18175</v>
+        <v>17879</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.3380607735596264</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.1922363795281352</v>
+        <v>0.2015800313810205</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.5179461568112805</v>
+        <v>0.5095230427126443</v>
       </c>
     </row>
     <row r="17">
@@ -1651,19 +1651,19 @@
         <v>5534</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>2012</v>
+        <v>2351</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>9176</v>
+        <v>9578</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.437795951822408</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.1591343432120741</v>
+        <v>0.1859761551930356</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.7259167324209589</v>
+        <v>0.7577064480387605</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>17</v>
@@ -1672,7 +1672,7 @@
         <v>17693</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>13213</v>
+        <v>12808</v>
       </c>
       <c r="M17" s="5" t="n">
         <v>20617</v>
@@ -1681,10 +1681,10 @@
         <v>0.7881618416795882</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.5886133033361111</v>
+        <v>0.5705489518345551</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.9184380416618794</v>
+        <v>0.9184531116514654</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>23</v>
@@ -1693,19 +1693,19 @@
         <v>23227</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>16915</v>
+        <v>17211</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>28344</v>
+        <v>28017</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.6619392264403736</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.4820538431887194</v>
+        <v>0.4904769572873557</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.8077636204718647</v>
+        <v>0.7984199686189787</v>
       </c>
     </row>
     <row r="18">
@@ -1797,19 +1797,19 @@
         <v>8211</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>3953</v>
+        <v>4144</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>12171</v>
+        <v>12017</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.5071105848066829</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.2441046785290791</v>
+        <v>0.2559513370980855</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.7516668209608712</v>
+        <v>0.7421549458524689</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>2</v>
@@ -1821,7 +1821,7 @@
         <v>0</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>7082</v>
+        <v>6398</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.07582992775615563</v>
@@ -1830,7 +1830,7 @@
         <v>0</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.2525391542003857</v>
+        <v>0.2281581474489067</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>10</v>
@@ -1839,19 +1839,19 @@
         <v>10338</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>5614</v>
+        <v>5435</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>16205</v>
+        <v>16391</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.2337033662237691</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.1269066193623252</v>
+        <v>0.1228743627957639</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.366345209407656</v>
+        <v>0.3705546214807018</v>
       </c>
     </row>
     <row r="20">
@@ -1868,19 +1868,19 @@
         <v>7981</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>4021</v>
+        <v>4175</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>12239</v>
+        <v>12048</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.4928894151933171</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.2483331790391288</v>
+        <v>0.2578450541475307</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.755895321470921</v>
+        <v>0.7440486629019145</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>25</v>
@@ -1889,7 +1889,7 @@
         <v>25916</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>20960</v>
+        <v>21644</v>
       </c>
       <c r="M20" s="5" t="n">
         <v>28042</v>
@@ -1898,7 +1898,7 @@
         <v>0.9241700722438444</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.7474608457996168</v>
+        <v>0.7718418525510933</v>
       </c>
       <c r="P20" s="6" t="n">
         <v>1</v>
@@ -1910,19 +1910,19 @@
         <v>33896</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>28029</v>
+        <v>27843</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>38620</v>
+        <v>38799</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.7662966337762309</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.633654790592344</v>
+        <v>0.629445378519298</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.8730933806376748</v>
+        <v>0.8771256372042362</v>
       </c>
     </row>
     <row r="21">
@@ -2014,19 +2014,19 @@
         <v>39763</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>29354</v>
+        <v>30104</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>50006</v>
+        <v>51402</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.3258757544441112</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.24056878792385</v>
+        <v>0.2467158335649479</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.4098143149139103</v>
+        <v>0.421262367994353</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>19</v>
@@ -2035,19 +2035,19 @@
         <v>19701</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>12353</v>
+        <v>12532</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>28571</v>
+        <v>28174</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.2100223889760512</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.1316904500080397</v>
+        <v>0.133595793279521</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.3045724217322173</v>
+        <v>0.3003397287403855</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>56</v>
@@ -2056,19 +2056,19 @@
         <v>59464</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>46666</v>
+        <v>47097</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>73580</v>
+        <v>73670</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.2755215369596656</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.2162222605586935</v>
+        <v>0.2182179710458731</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.3409252232414019</v>
+        <v>0.3413414318687495</v>
       </c>
     </row>
     <row r="23">
@@ -2085,19 +2085,19 @@
         <v>82257</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>72014</v>
+        <v>70618</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>92666</v>
+        <v>91916</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.6741242455558888</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.5901856850860894</v>
+        <v>0.5787376320056471</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.7594312120761493</v>
+        <v>0.7532841664350522</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>71</v>
@@ -2106,19 +2106,19 @@
         <v>74105</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>65235</v>
+        <v>65632</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>81453</v>
+        <v>81274</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.7899776110239487</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.6954275782677825</v>
+        <v>0.6996602712596148</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.8683095499919603</v>
+        <v>0.866404206720479</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>152</v>
@@ -2127,19 +2127,19 @@
         <v>156361</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>142245</v>
+        <v>142155</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>169159</v>
+        <v>168728</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.7244784630403345</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.6590747767585984</v>
+        <v>0.6586585681312506</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.7837777394413066</v>
+        <v>0.781782028954127</v>
       </c>
     </row>
     <row r="24">
@@ -2473,19 +2473,19 @@
         <v>8003</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>3205</v>
+        <v>3689</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>15624</v>
+        <v>15477</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.2356508570227719</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.09436795130792304</v>
+        <v>0.1086345584957804</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.4600547932074737</v>
+        <v>0.4557166483257233</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>5</v>
@@ -2494,19 +2494,19 @@
         <v>5822</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>2011</v>
+        <v>2006</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>11079</v>
+        <v>10588</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.3359591800805439</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.1160715750339023</v>
+        <v>0.1157457524984684</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.6393525671315333</v>
+        <v>0.6109742965370492</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>11</v>
@@ -2515,19 +2515,19 @@
         <v>13825</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>7502</v>
+        <v>7221</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>22325</v>
+        <v>22585</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.2695412311125344</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.1462625428858164</v>
+        <v>0.1407839320720941</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.435259941264496</v>
+        <v>0.4403260696566011</v>
       </c>
     </row>
     <row r="5">
@@ -2544,19 +2544,19 @@
         <v>25959</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>18338</v>
+        <v>18485</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>30757</v>
+        <v>30273</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.7643491429772281</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.5399452067925263</v>
+        <v>0.5442833516742763</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.905632048692077</v>
+        <v>0.8913654415042199</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>9</v>
@@ -2565,19 +2565,19 @@
         <v>11507</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>6250</v>
+        <v>6741</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>15318</v>
+        <v>15323</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.6640408199194561</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.3606474328684667</v>
+        <v>0.3890257034629512</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.8839284249660977</v>
+        <v>0.8842542475015317</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>32</v>
@@ -2586,19 +2586,19 @@
         <v>37466</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>28966</v>
+        <v>28706</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>43789</v>
+        <v>44070</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.7304587688874656</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.5647400587355038</v>
+        <v>0.559673930343399</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.8537374571141836</v>
+        <v>0.8592160679279058</v>
       </c>
     </row>
     <row r="6">
@@ -2690,19 +2690,19 @@
         <v>11519</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>6453</v>
+        <v>6392</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>17057</v>
+        <v>17117</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.3656274051817929</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.2048103181185569</v>
+        <v>0.2028908243646665</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.5414140011854145</v>
+        <v>0.5433058123191925</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>8</v>
@@ -2711,19 +2711,19 @@
         <v>8780</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>4244</v>
+        <v>4482</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>14855</v>
+        <v>14969</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.3398698172712286</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.1642802791841631</v>
+        <v>0.1734925168662288</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.5750432490250859</v>
+        <v>0.5794778127091228</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>20</v>
@@ -2732,19 +2732,19 @@
         <v>20299</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>13022</v>
+        <v>13760</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>28370</v>
+        <v>27610</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.3540229219982683</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.2271124528012354</v>
+        <v>0.2399856854537514</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.494796361261235</v>
+        <v>0.481540069193398</v>
       </c>
     </row>
     <row r="8">
@@ -2761,19 +2761,19 @@
         <v>19986</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>14448</v>
+        <v>14388</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>25052</v>
+        <v>25113</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.6343725948182071</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.4585859988145856</v>
+        <v>0.4566941876808081</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.7951896818814431</v>
+        <v>0.7971091756353336</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>15</v>
@@ -2782,19 +2782,19 @@
         <v>17052</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>10977</v>
+        <v>10863</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>21588</v>
+        <v>21350</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.6601301827287714</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.4249567509749137</v>
+        <v>0.4205221872908773</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.8357197208158369</v>
+        <v>0.8265074831337714</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>34</v>
@@ -2803,19 +2803,19 @@
         <v>37038</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>28967</v>
+        <v>29727</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>44315</v>
+        <v>43577</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.6459770780017317</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.5052036387387648</v>
+        <v>0.518459930806602</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.7728875471987645</v>
+        <v>0.7600143145462487</v>
       </c>
     </row>
     <row r="9">
@@ -2907,19 +2907,19 @@
         <v>16441</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>10271</v>
+        <v>10214</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>24735</v>
+        <v>25381</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.2749499809371841</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.1717622889473142</v>
+        <v>0.1708140541228745</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.4136532543958457</v>
+        <v>0.4244466319397538</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>3</v>
@@ -2928,19 +2928,19 @@
         <v>3716</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>1023</v>
+        <v>1005</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>8353</v>
+        <v>8924</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.2474866492256267</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.06814889732619982</v>
+        <v>0.06696182842606913</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.5563871730159028</v>
+        <v>0.5943913003958476</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>18</v>
@@ -2949,19 +2949,19 @@
         <v>20157</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>13180</v>
+        <v>12636</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>29073</v>
+        <v>29479</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.269438501053666</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.1761772962608301</v>
+        <v>0.1689032499954316</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.3886237267041521</v>
+        <v>0.394047748914673</v>
       </c>
     </row>
     <row r="11">
@@ -2978,19 +2978,19 @@
         <v>43356</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>35062</v>
+        <v>34416</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>49526</v>
+        <v>49583</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.7250500190628159</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.5863467456041539</v>
+        <v>0.5755533680602462</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.8282377110526857</v>
+        <v>0.8291859458771257</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>11</v>
@@ -2999,19 +2999,19 @@
         <v>11297</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>6660</v>
+        <v>6089</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>13990</v>
+        <v>14008</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.7525133507743733</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.4436128269840979</v>
+        <v>0.405608699604152</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.9318511026738002</v>
+        <v>0.9330381715739309</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>50</v>
@@ -3020,19 +3020,19 @@
         <v>54653</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>45737</v>
+        <v>45331</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>61630</v>
+        <v>62174</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.730561498946334</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.6113762732958491</v>
+        <v>0.6059522510853271</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.82382270373917</v>
+        <v>0.8310967500045685</v>
       </c>
     </row>
     <row r="12">
@@ -3124,19 +3124,19 @@
         <v>20776</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>13034</v>
+        <v>13776</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>29583</v>
+        <v>30403</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.2172769938898489</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.136315315348288</v>
+        <v>0.1440748669325509</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.309384086082806</v>
+        <v>0.3179559251870474</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>10</v>
@@ -3145,19 +3145,19 @@
         <v>9846</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>5050</v>
+        <v>4850</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>16173</v>
+        <v>16085</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.2022597842560198</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.1037509030211969</v>
+        <v>0.09963349417515907</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.3322424006149501</v>
+        <v>0.3304379714258324</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>30</v>
@@ -3166,19 +3166,19 @@
         <v>30622</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>21899</v>
+        <v>21900</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>43103</v>
+        <v>41675</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.2122109306520851</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.1517581726311719</v>
+        <v>0.1517700619760321</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.2987035006676713</v>
+        <v>0.2888114258849381</v>
       </c>
     </row>
     <row r="14">
@@ -3195,19 +3195,19 @@
         <v>74844</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>66037</v>
+        <v>65217</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>82586</v>
+        <v>81844</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.7827230061101511</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.690615913917194</v>
+        <v>0.6820440748129527</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.863684684651712</v>
+        <v>0.8559251330674491</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>37</v>
@@ -3216,19 +3216,19 @@
         <v>38833</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>32506</v>
+        <v>32594</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>43629</v>
+        <v>43829</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.7977402157439801</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.6677575993850512</v>
+        <v>0.6695620285741675</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.8962490969788035</v>
+        <v>0.9003665058248409</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>113</v>
@@ -3237,19 +3237,19 @@
         <v>113677</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>101196</v>
+        <v>102624</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>122400</v>
+        <v>122399</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.7877890693479149</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.7012964993323287</v>
+        <v>0.7111885741150618</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.8482418273688281</v>
+        <v>0.8482299380239676</v>
       </c>
     </row>
     <row r="15">
@@ -3341,19 +3341,19 @@
         <v>8749</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>4076</v>
+        <v>4573</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>15896</v>
+        <v>15530</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.2228325891439615</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.1038172315339128</v>
+        <v>0.1164681661379156</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.4048661138425653</v>
+        <v>0.3955405027699003</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>9</v>
@@ -3362,19 +3362,19 @@
         <v>9041</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>4289</v>
+        <v>4799</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>15964</v>
+        <v>16886</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.1552691857921802</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.07365314256670026</v>
+        <v>0.08242004107484524</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.2741713599723419</v>
+        <v>0.2900065116530741</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>17</v>
@@ -3383,19 +3383,19 @@
         <v>17790</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>11755</v>
+        <v>11003</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>26854</v>
+        <v>27193</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.1824798448290601</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.1205803245005736</v>
+        <v>0.1128668268294663</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.2754521017944483</v>
+        <v>0.278938666506246</v>
       </c>
     </row>
     <row r="17">
@@ -3412,19 +3412,19 @@
         <v>30514</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>23367</v>
+        <v>23733</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>35187</v>
+        <v>34690</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.7771674108560386</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.5951338861574347</v>
+        <v>0.6044594972300997</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.896182768466087</v>
+        <v>0.8835318338620844</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>46</v>
@@ -3433,19 +3433,19 @@
         <v>49185</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>42262</v>
+        <v>41340</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>53937</v>
+        <v>53427</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.8447308142078198</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.7258286400276585</v>
+        <v>0.709993488346924</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.9263468574333018</v>
+        <v>0.9175799589251548</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>75</v>
@@ -3454,19 +3454,19 @@
         <v>79699</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>70635</v>
+        <v>70296</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>85734</v>
+        <v>86486</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.8175201551709399</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.7245478982055515</v>
+        <v>0.7210613334937538</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.8794196754994263</v>
+        <v>0.8871331731705336</v>
       </c>
     </row>
     <row r="18">
@@ -3558,19 +3558,19 @@
         <v>7843</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>3940</v>
+        <v>3896</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>13427</v>
+        <v>12834</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.2923710287622174</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.1468905017719084</v>
+        <v>0.145236149202899</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.5005482997323228</v>
+        <v>0.478434288543522</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>11</v>
@@ -3579,19 +3579,19 @@
         <v>11070</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>6078</v>
+        <v>5613</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>18505</v>
+        <v>17591</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.1225585267147898</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.06729508670790725</v>
+        <v>0.06213724147736046</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.2048726855750712</v>
+        <v>0.194751304532082</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>19</v>
@@ -3600,19 +3600,19 @@
         <v>18913</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>12166</v>
+        <v>11690</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>27681</v>
+        <v>27469</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.1614427263838568</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.1038458591061755</v>
+        <v>0.09978871909814567</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.2362892116325407</v>
+        <v>0.2344755054512455</v>
       </c>
     </row>
     <row r="20">
@@ -3629,19 +3629,19 @@
         <v>18982</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>13398</v>
+        <v>13991</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>22885</v>
+        <v>22929</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.7076289712377826</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.4994517002676713</v>
+        <v>0.521565711456478</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.8531094982280916</v>
+        <v>0.854763850797101</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>75</v>
@@ -3650,19 +3650,19 @@
         <v>79255</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>71820</v>
+        <v>72734</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>84247</v>
+        <v>84712</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.8774414732852102</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.7951273144249299</v>
+        <v>0.8052486954679179</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.9327049132920928</v>
+        <v>0.937862758522636</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>95</v>
@@ -3671,19 +3671,19 @@
         <v>98237</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>89469</v>
+        <v>89681</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>104984</v>
+        <v>105460</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.8385572736161432</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.7637107883674593</v>
+        <v>0.7655244945487546</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.8961541408938243</v>
+        <v>0.9002112809018543</v>
       </c>
     </row>
     <row r="21">
@@ -3775,19 +3775,19 @@
         <v>73331</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>60104</v>
+        <v>59286</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>90662</v>
+        <v>89578</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.2555352827993448</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.2094405095363446</v>
+        <v>0.2065912829350988</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.3159262754222935</v>
+        <v>0.3121480792131686</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>46</v>
@@ -3796,19 +3796,19 @@
         <v>48274</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>36948</v>
+        <v>35140</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>62214</v>
+        <v>61123</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.1890086961053687</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.144664184189985</v>
+        <v>0.137585550048613</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.2435895379763178</v>
+        <v>0.2393188441249156</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>115</v>
@@ -3817,19 +3817,19 @@
         <v>121605</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>101870</v>
+        <v>103575</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>141283</v>
+        <v>145328</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.2242079730860666</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.1878209631863896</v>
+        <v>0.1909658620308997</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.2604894028154898</v>
+        <v>0.2679466037707434</v>
       </c>
     </row>
     <row r="23">
@@ -3846,19 +3846,19 @@
         <v>213641</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>196310</v>
+        <v>197394</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>226868</v>
+        <v>227686</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.7444647172006551</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.6840737245777064</v>
+        <v>0.6878519207868314</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.7905594904636554</v>
+        <v>0.7934087170649011</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>193</v>
@@ -3867,19 +3867,19 @@
         <v>207131</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>193191</v>
+        <v>194282</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>218457</v>
+        <v>220265</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.8109913038946314</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.7564104620236822</v>
+        <v>0.7606811558750846</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.8553358158100151</v>
+        <v>0.8624144499513872</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>399</v>
@@ -3888,19 +3888,19 @@
         <v>420772</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>401094</v>
+        <v>397049</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>440507</v>
+        <v>438802</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.7757920269139333</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.7395105971845102</v>
+        <v>0.7320533962292566</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.8121790368136105</v>
+        <v>0.8090341379691003</v>
       </c>
     </row>
     <row r="24">
@@ -4234,19 +4234,19 @@
         <v>5630</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>2085</v>
+        <v>2051</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>10711</v>
+        <v>11197</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.2614138056269892</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.09682278770847928</v>
+        <v>0.09525147973623189</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.497338624255852</v>
+        <v>0.5199278426248952</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>1</v>
@@ -4258,7 +4258,7 @@
         <v>0</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>5042</v>
+        <v>4669</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.05380024192752738</v>
@@ -4267,7 +4267,7 @@
         <v>0</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.2512157161845534</v>
+        <v>0.2326507092435106</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>6</v>
@@ -4276,19 +4276,19 @@
         <v>6709</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>2888</v>
+        <v>3060</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>14014</v>
+        <v>13204</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.1612624229434221</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.06940496795457607</v>
+        <v>0.0735389936830611</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.3368164534088652</v>
+        <v>0.317368719749728</v>
       </c>
     </row>
     <row r="5">
@@ -4305,19 +4305,19 @@
         <v>15906</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>10825</v>
+        <v>10339</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>19451</v>
+        <v>19485</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.7385861943730108</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.5026613757441476</v>
+        <v>0.4800721573751051</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.9031772122915208</v>
+        <v>0.9047485202637681</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>18</v>
@@ -4326,7 +4326,7 @@
         <v>18990</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>15028</v>
+        <v>15401</v>
       </c>
       <c r="M5" s="5" t="n">
         <v>20070</v>
@@ -4335,7 +4335,7 @@
         <v>0.9461997580724726</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.7487842838154447</v>
+        <v>0.7673492907564929</v>
       </c>
       <c r="P5" s="6" t="n">
         <v>1</v>
@@ -4347,19 +4347,19 @@
         <v>34897</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>27592</v>
+        <v>28402</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>38718</v>
+        <v>38546</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.8387375770565779</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.6631835465911365</v>
+        <v>0.6826312802502721</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.9305950320454239</v>
+        <v>0.926461006316939</v>
       </c>
     </row>
     <row r="6">
@@ -4451,19 +4451,19 @@
         <v>4870</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>1872</v>
+        <v>1768</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>8903</v>
+        <v>8891</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.2888381631399745</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.1110235867744372</v>
+        <v>0.1048343596214113</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.528064392825807</v>
+        <v>0.5273351738820609</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>4</v>
@@ -4472,19 +4472,19 @@
         <v>4423</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>905</v>
+        <v>1017</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>9923</v>
+        <v>10200</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.2002804319796353</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.04098101501747446</v>
+        <v>0.04605501971012741</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.4493035031623485</v>
+        <v>0.4618458885309296</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>9</v>
@@ -4493,19 +4493,19 @@
         <v>9293</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>4649</v>
+        <v>4764</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>15583</v>
+        <v>15949</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.2386172132026868</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.1193770194491858</v>
+        <v>0.122318528553863</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.4001290195856747</v>
+        <v>0.4095252238191223</v>
       </c>
     </row>
     <row r="8">
@@ -4522,19 +4522,19 @@
         <v>11990</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>7957</v>
+        <v>7969</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>14988</v>
+        <v>15092</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.7111618368600254</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.4719356071741931</v>
+        <v>0.4726648261179384</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.8889764132255628</v>
+        <v>0.8951656403785886</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>15</v>
@@ -4543,19 +4543,19 @@
         <v>17663</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>12163</v>
+        <v>11886</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>21181</v>
+        <v>21069</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.7997195680203647</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.5506964968376514</v>
+        <v>0.5381541114690704</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.9590189849825255</v>
+        <v>0.9539449802898728</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>27</v>
@@ -4564,19 +4564,19 @@
         <v>29653</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>23363</v>
+        <v>22997</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>34297</v>
+        <v>34182</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.7613827867973133</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.5998709804143254</v>
+        <v>0.5904747761808775</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.8806229805508141</v>
+        <v>0.877681471446137</v>
       </c>
     </row>
     <row r="9">
@@ -4668,19 +4668,19 @@
         <v>4209</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>1109</v>
+        <v>1095</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>9586</v>
+        <v>9339</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.1354784910235488</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.0356931739555584</v>
+        <v>0.03525723936576004</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.3085530231195512</v>
+        <v>0.3006238513009226</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>3</v>
@@ -4689,19 +4689,19 @@
         <v>3140</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>921</v>
+        <v>938</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>6556</v>
+        <v>6616</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.3144249913778303</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.09223736756539394</v>
+        <v>0.09399016848668702</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.6566335261874084</v>
+        <v>0.6626254898582804</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>7</v>
@@ -4710,19 +4710,19 @@
         <v>7349</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>3182</v>
+        <v>3125</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>13800</v>
+        <v>13395</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.1790045505228054</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.07751566535802594</v>
+        <v>0.07612204293343869</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.3361482593983593</v>
+        <v>0.3262780842932299</v>
       </c>
     </row>
     <row r="11">
@@ -4739,19 +4739,19 @@
         <v>26858</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>21481</v>
+        <v>21728</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>29958</v>
+        <v>29972</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.8645215089764512</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.6914469768804495</v>
+        <v>0.6993761486990772</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.9643068260444418</v>
+        <v>0.9647427606342399</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>6</v>
@@ -4760,19 +4760,19 @@
         <v>6845</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>3429</v>
+        <v>3369</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>9064</v>
+        <v>9047</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.6855750086221697</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.3433664738125916</v>
+        <v>0.3373745101417196</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.907762632434606</v>
+        <v>0.9060098315133129</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>32</v>
@@ -4781,19 +4781,19 @@
         <v>33704</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>27253</v>
+        <v>27658</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>37871</v>
+        <v>37928</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.8209954494771946</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.6638517406016408</v>
+        <v>0.6737219157067706</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.9224843346419741</v>
+        <v>0.9238779570665615</v>
       </c>
     </row>
     <row r="12">
@@ -4885,19 +4885,19 @@
         <v>17250</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>10773</v>
+        <v>10590</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>25405</v>
+        <v>24926</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.2924048224469765</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.1826114049067179</v>
+        <v>0.1795172458602121</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.4306488912656131</v>
+        <v>0.4225378669023441</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>10</v>
@@ -4906,19 +4906,19 @@
         <v>9889</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>5330</v>
+        <v>5111</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>16032</v>
+        <v>16463</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.2570886885938974</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.1385586582667314</v>
+        <v>0.1328733076499229</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.4167920377420938</v>
+        <v>0.4279905965162696</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>26</v>
@@ -4927,19 +4927,19 @@
         <v>27138</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>19231</v>
+        <v>19466</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>37479</v>
+        <v>37430</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.2784660584200244</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.197332664897987</v>
+        <v>0.1997394089915505</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.3845713152179234</v>
+        <v>0.3840638088182271</v>
       </c>
     </row>
     <row r="14">
@@ -4956,19 +4956,19 @@
         <v>41742</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>33587</v>
+        <v>34066</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>48219</v>
+        <v>48402</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.7075951775530235</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.5693511087343861</v>
+        <v>0.5774621330976557</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.8173885950932821</v>
+        <v>0.8204827541397879</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>26</v>
@@ -4977,19 +4977,19 @@
         <v>28576</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>22433</v>
+        <v>22002</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>33135</v>
+        <v>33354</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.7429113114061026</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.5832079622579064</v>
+        <v>0.5720094034837304</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.8614413417332688</v>
+        <v>0.8671266923500771</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>68</v>
@@ -4998,19 +4998,19 @@
         <v>70319</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>59978</v>
+        <v>60027</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>78226</v>
+        <v>77991</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.7215339415799756</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.6154286847820766</v>
+        <v>0.6159361911817737</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.8026673351020129</v>
+        <v>0.8002605910084496</v>
       </c>
     </row>
     <row r="15">
@@ -5102,19 +5102,19 @@
         <v>5940</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>2084</v>
+        <v>2125</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>11584</v>
+        <v>11554</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.1456660569081994</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.05110108314362152</v>
+        <v>0.0521220691077666</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.2840880835646488</v>
+        <v>0.2833472279590283</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>5</v>
@@ -5123,19 +5123,19 @@
         <v>4559</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>1711</v>
+        <v>1065</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>9751</v>
+        <v>9553</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.1128265428179206</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.04233961628695633</v>
+        <v>0.02636253544621659</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.2413021635381654</v>
+        <v>0.2363992106305857</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>11</v>
@@ -5144,19 +5144,19 @@
         <v>10499</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>5467</v>
+        <v>5847</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>16654</v>
+        <v>17781</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.1293202141921232</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.06733460685237896</v>
+        <v>0.07201243448161558</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.2051256529915114</v>
+        <v>0.2190083404809605</v>
       </c>
     </row>
     <row r="17">
@@ -5173,19 +5173,19 @@
         <v>34837</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>29193</v>
+        <v>29223</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>38693</v>
+        <v>38652</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.8543339430918006</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.7159119164353509</v>
+        <v>0.7166527720409716</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.9488989168563784</v>
+        <v>0.9478779308922334</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>32</v>
@@ -5194,19 +5194,19 @@
         <v>35852</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>30660</v>
+        <v>30858</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>38700</v>
+        <v>39346</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.8871734571820793</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.7586978364618343</v>
+        <v>0.7636007893694143</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.9576603837130436</v>
+        <v>0.9736374645537866</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>66</v>
@@ -5215,19 +5215,19 @@
         <v>70689</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>64534</v>
+        <v>63407</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>75721</v>
+        <v>75341</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.8706797858078767</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.7948743470084885</v>
+        <v>0.7809916595190401</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.932665393147621</v>
+        <v>0.9279875655183845</v>
       </c>
     </row>
     <row r="18">
@@ -5322,16 +5322,16 @@
         <v>1815</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>9665</v>
+        <v>9865</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.1668924036347747</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.06358884214753312</v>
+        <v>0.06361531929118773</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.3386860416718129</v>
+        <v>0.3456687283836617</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>8</v>
@@ -5340,19 +5340,19 @@
         <v>9278</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>4482</v>
+        <v>4151</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>17161</v>
+        <v>16509</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.1535178270715875</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.0741556684443333</v>
+        <v>0.06868236796754569</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.2839506624615584</v>
+        <v>0.2731650812701864</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>13</v>
@@ -5361,19 +5361,19 @@
         <v>14041</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>8034</v>
+        <v>7840</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>23077</v>
+        <v>22132</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.1578076901297343</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.09030081454495571</v>
+        <v>0.0881177536686724</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.2593716533981362</v>
+        <v>0.2487536856574993</v>
       </c>
     </row>
     <row r="20">
@@ -5390,7 +5390,7 @@
         <v>23775</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>18873</v>
+        <v>18673</v>
       </c>
       <c r="F20" s="5" t="n">
         <v>26723</v>
@@ -5399,10 +5399,10 @@
         <v>0.8331075963652254</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.6613139583281872</v>
+        <v>0.6543312716163384</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.9364111578524669</v>
+        <v>0.9363846807088123</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>44</v>
@@ -5411,19 +5411,19 @@
         <v>51157</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>43274</v>
+        <v>43926</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>55953</v>
+        <v>56284</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.8464821729284125</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.7160493375384434</v>
+        <v>0.7268349187298132</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.9258443315556668</v>
+        <v>0.9313176320324542</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>65</v>
@@ -5432,19 +5432,19 @@
         <v>74932</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>65896</v>
+        <v>66841</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>80939</v>
+        <v>81133</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.8421923098702657</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.7406283466018633</v>
+        <v>0.7512463143425003</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.9096991854550442</v>
+        <v>0.9118822463313274</v>
       </c>
     </row>
     <row r="21">
@@ -5536,19 +5536,19 @@
         <v>42660</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>32470</v>
+        <v>32501</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>55711</v>
+        <v>56229</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.2157085934024668</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.1641820121832644</v>
+        <v>0.1643357651045166</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.2816978945282498</v>
+        <v>0.2843156618762898</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>31</v>
@@ -5557,19 +5557,19 @@
         <v>32369</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>22719</v>
+        <v>22600</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>43988</v>
+        <v>43647</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.1690706121728705</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.1186644548354692</v>
+        <v>0.1180463624590602</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.22975898931318</v>
+        <v>0.2279754496763468</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>72</v>
@@ -5578,19 +5578,19 @@
         <v>75030</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>60745</v>
+        <v>59660</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>93206</v>
+        <v>92264</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.1927680054757041</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.1560662216198467</v>
+        <v>0.1532792721136718</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.2394675345479297</v>
+        <v>0.2370460040923512</v>
       </c>
     </row>
     <row r="23">
@@ -5607,19 +5607,19 @@
         <v>155109</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>142058</v>
+        <v>141540</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>165299</v>
+        <v>165268</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.7842914065975332</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.7183021054717502</v>
+        <v>0.7156843381237098</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.8358179878167354</v>
+        <v>0.8356642348954828</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>141</v>
@@ -5628,19 +5628,19 @@
         <v>159084</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>147465</v>
+        <v>147806</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>168734</v>
+        <v>168853</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.8309293878271296</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.7702410106868209</v>
+        <v>0.7720245503236532</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.8813355451645312</v>
+        <v>0.8819536375409399</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>291</v>
@@ -5649,19 +5649,19 @@
         <v>314193</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>296017</v>
+        <v>296959</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>328478</v>
+        <v>329563</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.8072319945242959</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.7605324654520703</v>
+        <v>0.7629539959076491</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.8439337783801534</v>
+        <v>0.8467207278863284</v>
       </c>
     </row>
     <row r="24">
@@ -5995,19 +5995,19 @@
         <v>7228</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>3244</v>
+        <v>3117</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>12614</v>
+        <v>13395</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.2794347591023416</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.1254142714669596</v>
+        <v>0.1205038102813984</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.4876460121086117</v>
+        <v>0.5178447731700779</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>9</v>
@@ -6016,19 +6016,19 @@
         <v>5984</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>3062</v>
+        <v>3026</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>9980</v>
+        <v>10107</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.228509705200153</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.1169069424868494</v>
+        <v>0.1155358126211638</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.3810881135447393</v>
+        <v>0.3859493571175719</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>16</v>
@@ -6037,19 +6037,19 @@
         <v>13213</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>7972</v>
+        <v>8038</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>20298</v>
+        <v>19927</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.2538150666969459</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.1531334421157994</v>
+        <v>0.1544174299240551</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.3899324288250999</v>
+        <v>0.3828016101514494</v>
       </c>
     </row>
     <row r="5">
@@ -6066,19 +6066,19 @@
         <v>18639</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>13253</v>
+        <v>12472</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>22623</v>
+        <v>22750</v>
       </c>
       <c r="G5" s="6" t="n">
-        <v>0.7205652408976585</v>
+        <v>0.7205652408976584</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.5123539878913882</v>
+        <v>0.482155226829922</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.8745857285330405</v>
+        <v>0.8794961897186008</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>33</v>
@@ -6087,19 +6087,19 @@
         <v>20204</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>16208</v>
+        <v>16081</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>23126</v>
+        <v>23162</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.771490294799847</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.6189118864552605</v>
+        <v>0.6140506428824252</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.8830930575131505</v>
+        <v>0.8844641873788357</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>51</v>
@@ -6108,19 +6108,19 @@
         <v>38843</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>31758</v>
+        <v>32129</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>44084</v>
+        <v>44018</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.7461849333030541</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.6100675711749003</v>
+        <v>0.6171983898485507</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.8468665578842008</v>
+        <v>0.8455825700759448</v>
       </c>
     </row>
     <row r="6">
@@ -6212,19 +6212,19 @@
         <v>9758</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>4428</v>
+        <v>4685</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>15766</v>
+        <v>16321</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.3792242347780236</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.1720921802921006</v>
+        <v>0.1820597965627616</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.6127067044861814</v>
+        <v>0.6342727952803114</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>11</v>
@@ -6233,19 +6233,19 @@
         <v>8248</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>4339</v>
+        <v>4911</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>12348</v>
+        <v>12521</v>
       </c>
       <c r="N7" s="6" t="n">
-        <v>0.330152380844324</v>
+        <v>0.3301523808443239</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.1736874486749601</v>
+        <v>0.1965604486242151</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.4942543943701954</v>
+        <v>0.5011956247097842</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>18</v>
@@ -6254,19 +6254,19 @@
         <v>18006</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>11409</v>
+        <v>11726</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>25706</v>
+        <v>26376</v>
       </c>
       <c r="U7" s="6" t="n">
-        <v>0.3550506190343358</v>
+        <v>0.3550506190343357</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.2249717629336202</v>
+        <v>0.2312098792343916</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.5068810402896125</v>
+        <v>0.5200853832915853</v>
       </c>
     </row>
     <row r="8">
@@ -6283,19 +6283,19 @@
         <v>15974</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>9966</v>
+        <v>9411</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>21304</v>
+        <v>21047</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.6207757652219763</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.3872932955138187</v>
+        <v>0.3657272047196884</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.8279078197078992</v>
+        <v>0.8179402034372383</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>26</v>
@@ -6304,19 +6304,19 @@
         <v>16735</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>12635</v>
+        <v>12462</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>20644</v>
+        <v>20072</v>
       </c>
       <c r="N8" s="6" t="n">
-        <v>0.6698476191556761</v>
+        <v>0.669847619155676</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.5057456056298048</v>
+        <v>0.4988043752902158</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.82631255132504</v>
+        <v>0.8034395513757849</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>44</v>
@@ -6325,19 +6325,19 @@
         <v>32708</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>25008</v>
+        <v>24338</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>39305</v>
+        <v>38988</v>
       </c>
       <c r="U8" s="6" t="n">
-        <v>0.6449493809656642</v>
+        <v>0.6449493809656641</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.4931189597103874</v>
+        <v>0.4799146167084143</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.7750282370663795</v>
+        <v>0.7687901207656084</v>
       </c>
     </row>
     <row r="9">
@@ -6429,19 +6429,19 @@
         <v>12413</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>7322</v>
+        <v>7491</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>18259</v>
+        <v>18943</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>0.3432842614625599</v>
+        <v>0.34328426146256</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.2024919688464277</v>
+        <v>0.2071727407781022</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.5049764314086337</v>
+        <v>0.5238772595507285</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>3</v>
@@ -6450,19 +6450,19 @@
         <v>1738</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>432</v>
+        <v>490</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>4458</v>
+        <v>4628</v>
       </c>
       <c r="N10" s="6" t="n">
-        <v>0.1369626961741537</v>
+        <v>0.1369626961741536</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.03408300198442339</v>
+        <v>0.0386544663029899</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.3513708082568346</v>
+        <v>0.3647437125682289</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>17</v>
@@ -6471,19 +6471,19 @@
         <v>14151</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>8302</v>
+        <v>8693</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>20445</v>
+        <v>20594</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.2896913282701997</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.1699559820693264</v>
+        <v>0.1779593315214413</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.4185406571239833</v>
+        <v>0.4215952264810588</v>
       </c>
     </row>
     <row r="11">
@@ -6500,19 +6500,19 @@
         <v>23746</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>17900</v>
+        <v>17216</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>28837</v>
+        <v>28668</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>0.65671573853744</v>
+        <v>0.6567157385374403</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.4950235685913662</v>
+        <v>0.4761227404492711</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.7975080311535724</v>
+        <v>0.7928272592218977</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>19</v>
@@ -6521,19 +6521,19 @@
         <v>10950</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>8230</v>
+        <v>8060</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>12256</v>
+        <v>12198</v>
       </c>
       <c r="N11" s="6" t="n">
-        <v>0.8630373038258462</v>
+        <v>0.8630373038258463</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.6486291917431652</v>
+        <v>0.6352562874317702</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.9659169980155767</v>
+        <v>0.9613455336970099</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>43</v>
@@ -6542,19 +6542,19 @@
         <v>34697</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>28403</v>
+        <v>28254</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>40546</v>
+        <v>40155</v>
       </c>
       <c r="U11" s="6" t="n">
-        <v>0.7103086717298005</v>
+        <v>0.7103086717298003</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.5814593428760166</v>
+        <v>0.5784047735189412</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.8300440179306738</v>
+        <v>0.8220406684785586</v>
       </c>
     </row>
     <row r="12">
@@ -6646,19 +6646,19 @@
         <v>17961</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>10666</v>
+        <v>9882</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>28477</v>
+        <v>28230</v>
       </c>
       <c r="G13" s="6" t="n">
-        <v>0.2309178093368444</v>
+        <v>0.2309178093368443</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.1371246010738604</v>
+        <v>0.1270552614140522</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.3661220982205506</v>
+        <v>0.3629515321454996</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>13</v>
@@ -6667,19 +6667,19 @@
         <v>11229</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>6093</v>
+        <v>6171</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>18313</v>
+        <v>18462</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.2027103906441785</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.1099997986926352</v>
+        <v>0.1114045874819217</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.3306010469353069</v>
+        <v>0.333279130470991</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>26</v>
@@ -6688,19 +6688,19 @@
         <v>29190</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>19841</v>
+        <v>20502</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>42614</v>
+        <v>43250</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.2191849064827967</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.1489843238340244</v>
+        <v>0.1539486790404783</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.319984031575397</v>
+        <v>0.3247596312706751</v>
       </c>
     </row>
     <row r="14">
@@ -6717,19 +6717,19 @@
         <v>59819</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>49303</v>
+        <v>49550</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>67114</v>
+        <v>67898</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.7690821906631556</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.6338779017794492</v>
+        <v>0.6370484678545001</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.8628753989261395</v>
+        <v>0.8729447385859477</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>65</v>
@@ -6738,19 +6738,19 @@
         <v>44165</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>37081</v>
+        <v>36932</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>49301</v>
+        <v>49223</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.7972896093558215</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.6693989530646929</v>
+        <v>0.6667208695290083</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.8900002013073646</v>
+        <v>0.8885954125180783</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>126</v>
@@ -6759,19 +6759,19 @@
         <v>103984</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>90560</v>
+        <v>89924</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>113333</v>
+        <v>112672</v>
       </c>
       <c r="U14" s="6" t="n">
-        <v>0.7808150935172032</v>
+        <v>0.7808150935172031</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.6800159684246029</v>
+        <v>0.675240368729325</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.8510156761659756</v>
+        <v>0.8460513209595217</v>
       </c>
     </row>
     <row r="15">
@@ -6863,19 +6863,19 @@
         <v>7489</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>3054</v>
+        <v>2772</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>14026</v>
+        <v>13539</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.1857239487736797</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.07574458735953571</v>
+        <v>0.06875191555354995</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.3478629455319151</v>
+        <v>0.3357893475994185</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>12</v>
@@ -6884,19 +6884,19 @@
         <v>11281</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>6016</v>
+        <v>5812</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>21901</v>
+        <v>21323</v>
       </c>
       <c r="N16" s="6" t="n">
-        <v>0.198055612626238</v>
+        <v>0.1980556126262381</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.1056111561489619</v>
+        <v>0.1020440564331725</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.3844975200160834</v>
+        <v>0.3743516842325224</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>19</v>
@@ -6905,19 +6905,19 @@
         <v>18770</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>11125</v>
+        <v>11720</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>29466</v>
+        <v>29183</v>
       </c>
       <c r="U16" s="6" t="n">
-        <v>0.1929443953602831</v>
+        <v>0.192944395360283</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.1143620194750453</v>
+        <v>0.1204749822778618</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.3028909468943323</v>
+        <v>0.2999875300521698</v>
       </c>
     </row>
     <row r="17">
@@ -6934,19 +6934,19 @@
         <v>32832</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>26295</v>
+        <v>26782</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>37267</v>
+        <v>37549</v>
       </c>
       <c r="G17" s="6" t="n">
-        <v>0.8142760512263204</v>
+        <v>0.8142760512263203</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.6521370544680847</v>
+        <v>0.6642106524005819</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.9242554126404644</v>
+        <v>0.93124808444645</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>84</v>
@@ -6955,19 +6955,19 @@
         <v>45679</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>35059</v>
+        <v>35637</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>50944</v>
+        <v>51148</v>
       </c>
       <c r="N17" s="6" t="n">
-        <v>0.8019443873737619</v>
+        <v>0.8019443873737621</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.6155024799839163</v>
+        <v>0.6256483157674778</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.8943888438510378</v>
+        <v>0.8979559435668274</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>117</v>
@@ -6976,19 +6976,19 @@
         <v>78511</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>67815</v>
+        <v>68098</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>86156</v>
+        <v>85561</v>
       </c>
       <c r="U17" s="6" t="n">
-        <v>0.807055604639717</v>
+        <v>0.8070556046397169</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.6971090531056676</v>
+        <v>0.7000124699478302</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.8856379805249547</v>
+        <v>0.879525017722138</v>
       </c>
     </row>
     <row r="18">
@@ -7083,7 +7083,7 @@
         <v>0</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>9661</v>
+        <v>9116</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.4017593276860781</v>
@@ -7092,7 +7092,7 @@
         <v>0</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.8609204090599293</v>
+        <v>0.8123662114962344</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>9</v>
@@ -7101,19 +7101,19 @@
         <v>10568</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>4481</v>
+        <v>5202</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>19156</v>
+        <v>20308</v>
       </c>
       <c r="N19" s="6" t="n">
-        <v>0.2148095771320872</v>
+        <v>0.2148095771320873</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.09107880692514497</v>
+        <v>0.1057406679191877</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.3893665754281993</v>
+        <v>0.4127712964527572</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>11</v>
@@ -7122,19 +7122,19 @@
         <v>15077</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>7766</v>
+        <v>8006</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>25723</v>
+        <v>24781</v>
       </c>
       <c r="U19" s="6" t="n">
-        <v>0.2495312794598947</v>
+        <v>0.2495312794598948</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.1285317489076402</v>
+        <v>0.1324986255784812</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.4257337431893853</v>
+        <v>0.41015047881002</v>
       </c>
     </row>
     <row r="20">
@@ -7151,7 +7151,7 @@
         <v>6713</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>1528</v>
+        <v>2048</v>
       </c>
       <c r="F20" s="5" t="n">
         <v>11222</v>
@@ -7160,7 +7160,7 @@
         <v>0.5982406723139219</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.1361660264052856</v>
+        <v>0.1824789010110373</v>
       </c>
       <c r="I20" s="6" t="n">
         <v>1</v>
@@ -7172,19 +7172,19 @@
         <v>38630</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>30042</v>
+        <v>28890</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>44717</v>
+        <v>43996</v>
       </c>
       <c r="N20" s="6" t="n">
-        <v>0.7851904228679127</v>
+        <v>0.7851904228679129</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.6106334245718005</v>
+        <v>0.5872287035472428</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.9089211930748551</v>
+        <v>0.8942593320808125</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>71</v>
@@ -7193,19 +7193,19 @@
         <v>45343</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>34697</v>
+        <v>35639</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>52654</v>
+        <v>52414</v>
       </c>
       <c r="U20" s="6" t="n">
-        <v>0.7504687205401052</v>
+        <v>0.7504687205401053</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.5742662568106145</v>
+        <v>0.5898495211899799</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.8714682510923597</v>
+        <v>0.8675013744215189</v>
       </c>
     </row>
     <row r="21">
@@ -7297,19 +7297,19 @@
         <v>59357</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>43961</v>
+        <v>46015</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>75736</v>
+        <v>76988</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.2734325926353648</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.2025095839026955</v>
+        <v>0.2119728340814122</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.348883708624344</v>
+        <v>0.3546499683952007</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>57</v>
@@ -7318,19 +7318,19 @@
         <v>49049</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>37813</v>
+        <v>37054</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>64062</v>
+        <v>64000</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.2175960246114979</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.1677516038238759</v>
+        <v>0.164381999786519</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.284199941090535</v>
+        <v>0.2839237303851788</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>107</v>
@@ -7339,19 +7339,19 @@
         <v>108406</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>89772</v>
+        <v>90499</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>130719</v>
+        <v>133310</v>
       </c>
       <c r="U22" s="6" t="n">
-        <v>0.2449886725550053</v>
+        <v>0.2449886725550054</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.2028778733640734</v>
+        <v>0.2045207284193015</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.2954165368749104</v>
+        <v>0.3012704365214325</v>
       </c>
     </row>
     <row r="23">
@@ -7368,19 +7368,19 @@
         <v>157724</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>141345</v>
+        <v>140093</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>173120</v>
+        <v>171066</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.7265674073646352</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.651116291375656</v>
+        <v>0.645350031604799</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.7974904160973045</v>
+        <v>0.7880271659185878</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>294</v>
@@ -7389,19 +7389,19 @@
         <v>176363</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>161350</v>
+        <v>161412</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>187599</v>
+        <v>188358</v>
       </c>
       <c r="N23" s="6" t="n">
-        <v>0.7824039753885021</v>
+        <v>0.782403975388502</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.7158000589094653</v>
+        <v>0.7160762696148208</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.8322483961761241</v>
+        <v>0.8356180002134809</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>452</v>
@@ -7410,19 +7410,19 @@
         <v>334086</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>311773</v>
+        <v>309182</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>352720</v>
+        <v>351993</v>
       </c>
       <c r="U23" s="6" t="n">
-        <v>0.7550113274449947</v>
+        <v>0.7550113274449948</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.7045834631250898</v>
+        <v>0.6987295634785676</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.7971221266359265</v>
+        <v>0.7954792715806985</v>
       </c>
     </row>
     <row r="24">
